--- a/semana/semana_completa_16.xlsx
+++ b/semana/semana_completa_16.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC57D48-4B48-4995-8DAA-94824EF05F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1161A03-9B14-44F4-A4EE-263DF4B5B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="881">
   <si>
     <t>c</t>
   </si>
@@ -1538,6 +1538,18 @@
   </si>
   <si>
     <t>UDEM</t>
+  </si>
+  <si>
+    <t>id_ruta</t>
+  </si>
+  <si>
+    <t>total_paradas</t>
+  </si>
+  <si>
+    <t>total_paradas_enc</t>
+  </si>
+  <si>
+    <t>total_paradas_no_enc</t>
   </si>
   <si>
     <t>E-ABB-N0001</t>
@@ -38656,8 +38668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20D647E-7C92-43B8-AE6C-F1F7816AD6E2}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39170,30 +39182,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FFAE9B-274F-4256-B476-354716661A12}">
-  <dimension ref="A1:F376"/>
+  <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C1">
-        <v>161</v>
-      </c>
-      <c r="D1">
-        <v>161</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -39201,13 +39213,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -39221,19 +39233,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C3">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="D3">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.94259999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -39241,19 +39253,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>0.92859999999999998</v>
+        <v>0.94259999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -39261,19 +39273,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C5">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D5">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>0.93410000000000004</v>
+        <v>0.92859999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -39281,19 +39293,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>0.99170000000000003</v>
+        <v>0.93410000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -39301,19 +39313,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C7">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="D7">
-        <v>365</v>
+        <v>238</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.96050000000000002</v>
+        <v>0.99170000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -39321,19 +39333,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C8">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="D8">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>0.92720000000000002</v>
+        <v>0.96050000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -39341,19 +39353,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C9">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>0.78569999999999995</v>
+        <v>0.92720000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -39361,19 +39373,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C10">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.78569999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -39381,13 +39393,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -39401,19 +39413,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C12">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="D12">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.78949999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -39421,19 +39433,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C13">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.78949999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -39441,19 +39453,19 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C14">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D14">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.97860000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -39461,19 +39473,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C15">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="D15">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.97860000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -39481,19 +39493,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="D16">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -39501,19 +39513,19 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D17">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9556</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -39521,19 +39533,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C18">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D18">
-        <v>379</v>
+        <v>220</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.99739999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -39541,19 +39553,19 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C19">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D19">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99739999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -39561,19 +39573,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C20">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="D20">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.94930000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -39581,19 +39593,19 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C21">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>393</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>0.96150000000000002</v>
+        <v>0.94930000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -39601,39 +39613,39 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>520</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C23">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.99650000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -39641,19 +39653,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C24">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D24">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.93879999999999997</v>
+        <v>0.99650000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -39661,19 +39673,19 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C25">
-        <v>546</v>
+        <v>294</v>
       </c>
       <c r="D25">
-        <v>459</v>
+        <v>276</v>
       </c>
       <c r="E25">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>0.8407</v>
+        <v>0.93879999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -39681,19 +39693,19 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C26">
-        <v>675</v>
+        <v>546</v>
       </c>
       <c r="D26">
-        <v>623</v>
+        <v>459</v>
       </c>
       <c r="E26">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>0.92300000000000004</v>
+        <v>0.8407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -39701,39 +39713,39 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C27">
-        <v>378</v>
+        <v>675</v>
       </c>
       <c r="D27">
-        <v>378</v>
+        <v>623</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C28">
-        <v>624</v>
+        <v>378</v>
       </c>
       <c r="D28">
-        <v>616</v>
+        <v>378</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98719999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -39741,19 +39753,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C29">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="D29">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>0.96430000000000005</v>
+        <v>0.98719999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -39761,39 +39773,39 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C30">
-        <v>436</v>
+        <v>644</v>
       </c>
       <c r="D30">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>0.98619999999999997</v>
+        <v>0.96430000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C31">
-        <v>130</v>
+        <v>436</v>
       </c>
       <c r="D31">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.98619999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -39801,13 +39813,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C32">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -39821,19 +39833,19 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C33">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.89859999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -39841,59 +39853,59 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C34">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="D34">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.89859999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C35">
-        <v>560</v>
+        <v>187</v>
       </c>
       <c r="D35">
-        <v>526</v>
+        <v>187</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.93930000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C36">
-        <v>132</v>
+        <v>560</v>
       </c>
       <c r="D36">
-        <v>132</v>
+        <v>526</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.93930000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -39901,19 +39913,19 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C37">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="D37">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -39921,19 +39933,19 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C38">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="D38">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>0.99570000000000003</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -39941,19 +39953,19 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C39">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D39">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0.9778</v>
+        <v>0.99570000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -39961,19 +39973,19 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C40">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D40">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.9778</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -39981,13 +39993,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C41">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D41">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -40001,19 +40013,19 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C42">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D42">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.8901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -40021,19 +40033,19 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C43">
-        <v>437</v>
+        <v>182</v>
       </c>
       <c r="D43">
-        <v>358</v>
+        <v>162</v>
       </c>
       <c r="E43">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>0.81920000000000004</v>
+        <v>0.8901</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -40041,19 +40053,19 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C44">
-        <v>168</v>
+        <v>437</v>
       </c>
       <c r="D44">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F44">
-        <v>0.97619999999999996</v>
+        <v>0.81920000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -40061,19 +40073,19 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C45">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D45">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>0.97060000000000002</v>
+        <v>0.97619999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -40081,19 +40093,19 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C46">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>390</v>
+        <v>132</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>0.99739999999999995</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -40101,19 +40113,19 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C47">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="D47">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="E47">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.92359999999999998</v>
+        <v>0.99739999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -40121,59 +40133,59 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C48">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D48">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>0.94440000000000002</v>
+        <v>0.92359999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>552</v>
+      </c>
+      <c r="C49">
+        <v>270</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
         <v>15</v>
       </c>
-      <c r="B49" t="s">
-        <v>549</v>
-      </c>
-      <c r="C49">
-        <v>141</v>
-      </c>
-      <c r="D49">
-        <v>141</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C50">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D50">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.92859999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -40181,19 +40193,19 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C51">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D51">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>0.88970000000000005</v>
+        <v>0.92859999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -40201,19 +40213,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C52">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D52">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.88970000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -40221,19 +40233,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C53">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="D53">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.99550000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -40241,19 +40253,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C54">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="D54">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0.83709999999999996</v>
+        <v>0.99550000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -40261,19 +40273,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D55">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F55">
-        <v>0.98499999999999999</v>
+        <v>0.83709999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -40281,19 +40293,19 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C56">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D56">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>0.91300000000000003</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -40301,19 +40313,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C57">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D57">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>0.92649999999999999</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -40321,19 +40333,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C58">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D58">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="E58">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>0.84560000000000002</v>
+        <v>0.92649999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -40341,19 +40353,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C59">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="D59">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.84560000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -40361,19 +40373,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.95240000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -40381,19 +40393,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C61">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>0.98909999999999998</v>
+        <v>0.95240000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -40401,19 +40413,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.98909999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -40421,39 +40433,39 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C64">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.89749999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -40461,19 +40473,19 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C65">
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="D65">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F65">
-        <v>0.91359999999999997</v>
+        <v>0.89749999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -40481,19 +40493,19 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C66">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D66">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.91359999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -40501,19 +40513,19 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C67">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="D67">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.93059999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -40521,19 +40533,19 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C68">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="D68">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="E68">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>0.91369999999999996</v>
+        <v>0.93059999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -40541,19 +40553,19 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C69">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D69">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>0.91369999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -40561,19 +40573,19 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C70">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="D70">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -40581,19 +40593,19 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C71">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="D71">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.92259999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -40601,19 +40613,19 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C72">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D72">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.92259999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -40621,19 +40633,19 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C73">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="D73">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.94910000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -40641,19 +40653,19 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C74">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D74">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>0.99580000000000002</v>
+        <v>0.94910000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -40661,19 +40673,19 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C75">
-        <v>441</v>
+        <v>240</v>
       </c>
       <c r="D75">
-        <v>440</v>
+        <v>239</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.99770000000000003</v>
+        <v>0.99580000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -40681,19 +40693,19 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C76">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="D76">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0.96409999999999996</v>
+        <v>0.99770000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -40701,19 +40713,19 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C77">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="D77">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.96409999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -40721,19 +40733,19 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C78">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="D78">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -40741,19 +40753,19 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C79">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="D79">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>0.93940000000000001</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -40761,19 +40773,19 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C80">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="D80">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.93940000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -40781,19 +40793,19 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C81">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="D81">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E81">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.87909999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -40801,19 +40813,19 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C82">
-        <v>462</v>
+        <v>306</v>
       </c>
       <c r="D82">
-        <v>437</v>
+        <v>269</v>
       </c>
       <c r="E82">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F82">
-        <v>0.94589999999999996</v>
+        <v>0.87909999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -40821,19 +40833,19 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C83">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D83">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.94589999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -40841,13 +40853,13 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>399</v>
       </c>
       <c r="D84">
-        <v>84</v>
+        <v>399</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -40861,19 +40873,19 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C85">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D85">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.96360000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -40881,19 +40893,19 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C86">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D86">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.96360000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -40901,13 +40913,13 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -40921,19 +40933,19 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -40941,7 +40953,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -40958,22 +40970,22 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -40981,19 +40993,19 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C91">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="D91">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.96989999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -41001,19 +41013,19 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C92">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D92">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>0.95830000000000004</v>
+        <v>0.96989999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -41021,39 +41033,39 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C93">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D93">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.95830000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C94">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="D94">
-        <v>399</v>
+        <v>96</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.98519999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -41061,19 +41073,19 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C95">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="D95">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="E95">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>0.85770000000000002</v>
+        <v>0.98519999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -41081,19 +41093,19 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C96">
-        <v>696</v>
+        <v>260</v>
       </c>
       <c r="D96">
-        <v>658</v>
+        <v>223</v>
       </c>
       <c r="E96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96">
-        <v>0.94540000000000002</v>
+        <v>0.85770000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -41101,19 +41113,19 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C97">
-        <v>420</v>
+        <v>696</v>
       </c>
       <c r="D97">
-        <v>409</v>
+        <v>658</v>
       </c>
       <c r="E97">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F97">
-        <v>0.9738</v>
+        <v>0.94540000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -41121,19 +41133,19 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C98">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="D98">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>0.99470000000000003</v>
+        <v>0.9738</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -41141,39 +41153,39 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C99">
-        <v>532</v>
+        <v>378</v>
       </c>
       <c r="D99">
-        <v>527</v>
+        <v>376</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>0.99060000000000004</v>
+        <v>0.99470000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C100">
-        <v>135</v>
+        <v>532</v>
       </c>
       <c r="D100">
-        <v>135</v>
+        <v>527</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.99060000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -41181,13 +41193,13 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C101">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D101">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -41201,19 +41213,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C102">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="D102">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.98719999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -41221,19 +41233,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C103">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="D103">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.98719999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -41241,19 +41253,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -41261,19 +41273,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C105">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -41281,13 +41293,13 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C106">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D106">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -41298,22 +41310,22 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C107">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="D107">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -41321,19 +41333,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C108">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D108">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0.96299999999999997</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -41341,39 +41353,39 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C110">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.89710000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -41381,19 +41393,19 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C111">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="D111">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F111">
-        <v>0.99680000000000002</v>
+        <v>0.89710000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -41401,19 +41413,19 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C112">
-        <v>114</v>
+        <v>312</v>
       </c>
       <c r="D112">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>0.92979999999999996</v>
+        <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -41421,19 +41433,19 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C113">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D113">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E113">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>0.66669999999999996</v>
+        <v>0.92979999999999996</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -41441,39 +41453,39 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C114">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="D114">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="E114">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F114">
-        <v>0.62350000000000005</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C115">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="D115">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="E115">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F115">
-        <v>0.93169999999999997</v>
+        <v>0.62350000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -41481,19 +41493,19 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C116">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D116">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.93169999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -41501,19 +41513,19 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C117">
-        <v>598</v>
+        <v>361</v>
       </c>
       <c r="D117">
-        <v>564</v>
+        <v>361</v>
       </c>
       <c r="E117">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.94310000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -41521,19 +41533,19 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C118">
-        <v>189</v>
+        <v>598</v>
       </c>
       <c r="D118">
-        <v>189</v>
+        <v>564</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.94310000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -41541,13 +41553,13 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C119">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="D119">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -41561,13 +41573,13 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C120">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="D120">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -41581,39 +41593,39 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C121">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="D121">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E121">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.93269999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C122">
-        <v>532</v>
+        <v>416</v>
       </c>
       <c r="D122">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="E122">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="F122">
-        <v>0.64100000000000001</v>
+        <v>0.93269999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -41621,19 +41633,19 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C123">
-        <v>638</v>
+        <v>532</v>
       </c>
       <c r="D123">
-        <v>505</v>
+        <v>341</v>
       </c>
       <c r="E123">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="F123">
-        <v>0.79149999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -41641,19 +41653,19 @@
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C124">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D124">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="E124">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="F124">
-        <v>0.88819999999999999</v>
+        <v>0.79149999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -41661,19 +41673,19 @@
         <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C125">
-        <v>456</v>
+        <v>644</v>
       </c>
       <c r="D125">
-        <v>431</v>
+        <v>572</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F125">
-        <v>0.94520000000000004</v>
+        <v>0.88819999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -41681,19 +41693,19 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C126">
-        <v>644</v>
+        <v>456</v>
       </c>
       <c r="D126">
-        <v>574</v>
+        <v>431</v>
       </c>
       <c r="E126">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F126">
-        <v>0.89129999999999998</v>
+        <v>0.94520000000000004</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -41701,19 +41713,19 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C127">
-        <v>320</v>
+        <v>644</v>
       </c>
       <c r="D127">
-        <v>304</v>
+        <v>574</v>
       </c>
       <c r="E127">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F127">
-        <v>0.95</v>
+        <v>0.89129999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -41721,19 +41733,19 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C128">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="D128">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -41741,13 +41753,13 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C129">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D129">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -41761,13 +41773,13 @@
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C130">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="D130">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -41781,13 +41793,13 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C131">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D131">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -41798,16 +41810,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C132">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="D132">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -41821,13 +41833,13 @@
         <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C133">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="D133">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -41841,19 +41853,19 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C134">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="D134">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.98860000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -41861,19 +41873,19 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -41881,19 +41893,19 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C136">
-        <v>660</v>
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>653</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.98939999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -41901,19 +41913,19 @@
         <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C137">
-        <v>60</v>
+        <v>660</v>
       </c>
       <c r="D137">
-        <v>58</v>
+        <v>653</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F137">
-        <v>0.9667</v>
+        <v>0.98939999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -41921,19 +41933,19 @@
         <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C138">
-        <v>322</v>
+        <v>60</v>
       </c>
       <c r="D138">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F138">
-        <v>0.98140000000000005</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -41941,19 +41953,19 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C139">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="D139">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F139">
-        <v>0.98799999999999999</v>
+        <v>0.98140000000000005</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -41961,39 +41973,39 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C140">
-        <v>198</v>
+        <v>416</v>
       </c>
       <c r="D140">
-        <v>195</v>
+        <v>411</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F140">
-        <v>0.98480000000000001</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C141">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D141">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E141">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>0.86760000000000004</v>
+        <v>0.98480000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -42001,19 +42013,19 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C142">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="D142">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="E142">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F142">
-        <v>0.79690000000000005</v>
+        <v>0.86760000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -42021,19 +42033,19 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C143">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D143">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E143">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F143">
-        <v>0.84</v>
+        <v>0.79690000000000005</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -42041,19 +42053,19 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C144">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D144">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -42061,13 +42073,13 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C145">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D145">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -42081,13 +42093,13 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C146">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D146">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -42101,19 +42113,19 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C147">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D147">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.98809999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -42121,19 +42133,19 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C148">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="D148">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.98809999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -42141,19 +42153,19 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C149">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D149">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.98180000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -42161,19 +42173,19 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C150">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D150">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>0.90910000000000002</v>
+        <v>0.98180000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -42181,39 +42193,39 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C152">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.69699999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -42221,19 +42233,19 @@
         <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C153">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D153">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -42241,13 +42253,13 @@
         <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -42261,19 +42273,19 @@
         <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C155">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.97219999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -42281,19 +42293,19 @@
         <v>28</v>
       </c>
       <c r="B156" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C156">
+        <v>36</v>
+      </c>
+      <c r="D156">
         <v>35</v>
       </c>
-      <c r="D156">
-        <v>29</v>
-      </c>
       <c r="E156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>0.8286</v>
+        <v>0.97219999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -42301,19 +42313,19 @@
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C157">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D157">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F157">
-        <v>0.92</v>
+        <v>0.8286</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -42321,39 +42333,39 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C159">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.97829999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -42361,19 +42373,19 @@
         <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C160">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="D160">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="E160">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F160">
-        <v>0.95240000000000002</v>
+        <v>0.97829999999999995</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -42381,53 +42393,53 @@
         <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C161">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="D161">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F161">
-        <v>0.96150000000000002</v>
+        <v>0.95240000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C162">
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="D162">
-        <v>600</v>
+        <v>175</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C163">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="D163">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -42441,19 +42453,19 @@
         <v>31</v>
       </c>
       <c r="B164" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C164">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D164">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E164">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.79369999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -42461,19 +42473,19 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C165">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D165">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.79369999999999996</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -42481,19 +42493,19 @@
         <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C166">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D166">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E166">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.87370000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -42501,19 +42513,19 @@
         <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C167">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D167">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="E167">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F167">
-        <v>0.67369999999999997</v>
+        <v>0.87370000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -42521,19 +42533,19 @@
         <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C168">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D168">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.67369999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -42541,19 +42553,19 @@
         <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C169">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D169">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E169">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.94440000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -42561,19 +42573,19 @@
         <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C170">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D170">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="E170">
         <v>11</v>
       </c>
       <c r="F170">
-        <v>0.78</v>
+        <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -42581,19 +42593,19 @@
         <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C171">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="D171">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F171">
-        <v>0.98250000000000004</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -42601,19 +42613,19 @@
         <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C172">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D172">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.98250000000000004</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -42621,13 +42633,13 @@
         <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C173">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D173">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -42641,19 +42653,19 @@
         <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C174">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D174">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.98750000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -42661,19 +42673,19 @@
         <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C175">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D175">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="E175">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F175">
-        <v>0.72219999999999995</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -42681,19 +42693,19 @@
         <v>31</v>
       </c>
       <c r="B176" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C176">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D176">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E176">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F176">
-        <v>0.91300000000000003</v>
+        <v>0.72219999999999995</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -42701,19 +42713,19 @@
         <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C177">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="D177">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="E177">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F177">
-        <v>0.45450000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -42721,19 +42733,19 @@
         <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C178">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="D178">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="E178">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F178">
-        <v>0.90449999999999997</v>
+        <v>0.45450000000000002</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -42741,19 +42753,19 @@
         <v>31</v>
       </c>
       <c r="B179" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C179">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D179">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F179">
-        <v>0.91249999999999998</v>
+        <v>0.90449999999999997</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -42761,19 +42773,19 @@
         <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C180">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D180">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.91249999999999998</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -42781,19 +42793,19 @@
         <v>31</v>
       </c>
       <c r="B181" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C181">
-        <v>550</v>
+        <v>176</v>
       </c>
       <c r="D181">
-        <v>458</v>
+        <v>176</v>
       </c>
       <c r="E181">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.8327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -42801,19 +42813,19 @@
         <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C182">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="D182">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="E182">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F182">
-        <v>0.87880000000000003</v>
+        <v>0.8327</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -42821,19 +42833,19 @@
         <v>31</v>
       </c>
       <c r="B183" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C183">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D183">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="E183">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F183">
-        <v>0.79169999999999996</v>
+        <v>0.87880000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -42841,19 +42853,19 @@
         <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C184">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="D184">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F184">
-        <v>0.93330000000000002</v>
+        <v>0.79169999999999996</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -42861,19 +42873,19 @@
         <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D185">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F185">
-        <v>0.68889999999999996</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -42881,19 +42893,19 @@
         <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C186">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="D186">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.68889999999999996</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -42901,19 +42913,19 @@
         <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C187">
-        <v>1094</v>
+        <v>300</v>
       </c>
       <c r="D187">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="E187">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.63070000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -42921,19 +42933,19 @@
         <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C188">
-        <v>315</v>
+        <v>1094</v>
       </c>
       <c r="D188">
-        <v>247</v>
+        <v>690</v>
       </c>
       <c r="E188">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="F188">
-        <v>0.78410000000000002</v>
+        <v>0.63070000000000004</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -42941,19 +42953,19 @@
         <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C189">
-        <v>770</v>
+        <v>315</v>
       </c>
       <c r="D189">
-        <v>668</v>
+        <v>247</v>
       </c>
       <c r="E189">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F189">
-        <v>0.86750000000000005</v>
+        <v>0.78410000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -42961,39 +42973,39 @@
         <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C190">
-        <v>261</v>
+        <v>770</v>
       </c>
       <c r="D190">
-        <v>225</v>
+        <v>668</v>
       </c>
       <c r="E190">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F190">
-        <v>0.86209999999999998</v>
+        <v>0.86750000000000005</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C191">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D191">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.86209999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -43001,7 +43013,7 @@
         <v>32</v>
       </c>
       <c r="B192" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C192">
         <v>133</v>
@@ -43021,13 +43033,13 @@
         <v>32</v>
       </c>
       <c r="B193" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C193">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="D193">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -43041,53 +43053,53 @@
         <v>32</v>
       </c>
       <c r="B194" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C195">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>498</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C196">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -43101,7 +43113,7 @@
         <v>498</v>
       </c>
       <c r="B197" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C197">
         <v>13</v>
@@ -43121,19 +43133,19 @@
         <v>498</v>
       </c>
       <c r="B198" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.71430000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -43141,39 +43153,39 @@
         <v>498</v>
       </c>
       <c r="B199" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C199">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>498</v>
       </c>
       <c r="B200" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C200">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="E200">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.8095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -43181,19 +43193,19 @@
         <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C201">
-        <v>567</v>
+        <v>315</v>
       </c>
       <c r="D201">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="E201">
-        <v>383</v>
+        <v>60</v>
       </c>
       <c r="F201">
-        <v>0.32450000000000001</v>
+        <v>0.8095</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -43201,19 +43213,19 @@
         <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C202">
-        <v>397</v>
+        <v>567</v>
       </c>
       <c r="D202">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="F202">
-        <v>0.99750000000000005</v>
+        <v>0.32450000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -43221,19 +43233,19 @@
         <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C203">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="D203">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>0.99670000000000003</v>
+        <v>0.99750000000000005</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -43241,19 +43253,19 @@
         <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C204">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D204">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="E204">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0.87270000000000003</v>
+        <v>0.99670000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -43261,19 +43273,19 @@
         <v>34</v>
       </c>
       <c r="B205" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C205">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="D205">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="E205">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F205">
-        <v>0.86509999999999998</v>
+        <v>0.87270000000000003</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -43281,19 +43293,19 @@
         <v>34</v>
       </c>
       <c r="B206" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C206">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D206">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F206">
-        <v>0.96830000000000005</v>
+        <v>0.86509999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -43301,19 +43313,19 @@
         <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C207">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="D207">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E207">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F207">
-        <v>0.77780000000000005</v>
+        <v>0.96830000000000005</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -43321,19 +43333,19 @@
         <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C208">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="D208">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="E208">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F208">
-        <v>0.86670000000000003</v>
+        <v>0.77780000000000005</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -43341,19 +43353,19 @@
         <v>34</v>
       </c>
       <c r="B209" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C209">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="D209">
-        <v>158</v>
+        <v>351</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F209">
-        <v>0.98750000000000004</v>
+        <v>0.86670000000000003</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -43361,19 +43373,19 @@
         <v>34</v>
       </c>
       <c r="B210" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C210">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D210">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F210">
-        <v>0.9788</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -43381,19 +43393,19 @@
         <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C211">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="D211">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F211">
-        <v>0.99309999999999998</v>
+        <v>0.9788</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -43401,39 +43413,39 @@
         <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>0.99309999999999998</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B213" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C213">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.96430000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -43441,19 +43453,19 @@
         <v>35</v>
       </c>
       <c r="B214" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C214">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="D214">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F214">
-        <v>0.97060000000000002</v>
+        <v>0.96430000000000005</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -43461,19 +43473,19 @@
         <v>35</v>
       </c>
       <c r="B215" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C215">
-        <v>936</v>
+        <v>170</v>
       </c>
       <c r="D215">
-        <v>906</v>
+        <v>165</v>
       </c>
       <c r="E215">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F215">
-        <v>0.96789999999999998</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -43481,19 +43493,19 @@
         <v>35</v>
       </c>
       <c r="B216" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C216">
-        <v>170</v>
+        <v>936</v>
       </c>
       <c r="D216">
-        <v>170</v>
+        <v>906</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.96789999999999998</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -43501,19 +43513,19 @@
         <v>35</v>
       </c>
       <c r="B217" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C217">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="D217">
-        <v>457</v>
+        <v>170</v>
       </c>
       <c r="E217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.99350000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -43521,19 +43533,19 @@
         <v>35</v>
       </c>
       <c r="B218" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C218">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="D218">
-        <v>605</v>
+        <v>457</v>
       </c>
       <c r="E218">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F218">
-        <v>0.9758</v>
+        <v>0.99350000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -43541,19 +43553,19 @@
         <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C219">
-        <v>322</v>
+        <v>620</v>
       </c>
       <c r="D219">
-        <v>320</v>
+        <v>605</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F219">
-        <v>0.99380000000000002</v>
+        <v>0.9758</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -43561,59 +43573,59 @@
         <v>35</v>
       </c>
       <c r="B220" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C220">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="D220">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="E220">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F220">
-        <v>0.93940000000000001</v>
+        <v>0.99380000000000002</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B221" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C221">
-        <v>576</v>
+        <v>264</v>
       </c>
       <c r="D221">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="E221">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F221">
-        <v>0.72399999999999998</v>
+        <v>0.93940000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B222" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C222">
-        <v>180</v>
+        <v>576</v>
       </c>
       <c r="D222">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -43621,19 +43633,19 @@
         <v>37</v>
       </c>
       <c r="B223" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C223">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="D223">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.98860000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -43641,19 +43653,19 @@
         <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C224">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="D224">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -43661,19 +43673,19 @@
         <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C225">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="D225">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.99309999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -43681,19 +43693,19 @@
         <v>37</v>
       </c>
       <c r="B226" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C226">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="D226">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.99309999999999998</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -43701,39 +43713,39 @@
         <v>37</v>
       </c>
       <c r="B227" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C227">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="D227">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.99690000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B228" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C228">
-        <v>486</v>
+        <v>323</v>
       </c>
       <c r="D228">
-        <v>450</v>
+        <v>322</v>
       </c>
       <c r="E228">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>0.92589999999999995</v>
+        <v>0.99690000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -43741,19 +43753,19 @@
         <v>38</v>
       </c>
       <c r="B229" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C229">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="D229">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F229">
-        <v>0.99050000000000005</v>
+        <v>0.92589999999999995</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -43761,19 +43773,19 @@
         <v>38</v>
       </c>
       <c r="B230" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C230">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D230">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E230">
         <v>5</v>
       </c>
       <c r="F230">
-        <v>0.99029999999999996</v>
+        <v>0.99050000000000005</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -43781,19 +43793,19 @@
         <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C231">
-        <v>208</v>
+        <v>518</v>
       </c>
       <c r="D231">
-        <v>208</v>
+        <v>513</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -43801,13 +43813,13 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C232">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="D232">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -43821,19 +43833,19 @@
         <v>38</v>
       </c>
       <c r="B233" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C233">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="D233">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="E233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.99350000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -43841,33 +43853,33 @@
         <v>38</v>
       </c>
       <c r="B234" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C234">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D234">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.99350000000000005</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B235" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C235">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="D235">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -43878,22 +43890,22 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B236" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C236">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="D236">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.90480000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -43901,19 +43913,19 @@
         <v>40</v>
       </c>
       <c r="B237" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C237">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="D237">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="E237">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F237">
-        <v>0.96540000000000004</v>
+        <v>0.90480000000000005</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -43921,19 +43933,19 @@
         <v>40</v>
       </c>
       <c r="B238" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C238">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="D238">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.96540000000000004</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -43941,13 +43953,13 @@
         <v>40</v>
       </c>
       <c r="B239" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C239">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D239">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -43961,59 +43973,59 @@
         <v>40</v>
       </c>
       <c r="B240" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C240">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D240">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E240">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.42709999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" t="s">
+        <v>744</v>
+      </c>
+      <c r="C241">
+        <v>96</v>
+      </c>
+      <c r="D241">
         <v>41</v>
       </c>
-      <c r="B241" t="s">
-        <v>741</v>
-      </c>
-      <c r="C241">
-        <v>110</v>
-      </c>
-      <c r="D241">
-        <v>100</v>
-      </c>
       <c r="E241">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F241">
-        <v>0.90910000000000002</v>
+        <v>0.42709999999999998</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B242" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C242">
-        <v>740</v>
+        <v>110</v>
       </c>
       <c r="D242">
-        <v>739</v>
+        <v>100</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F242">
-        <v>0.99860000000000004</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -44021,19 +44033,19 @@
         <v>42</v>
       </c>
       <c r="B243" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C243">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="D243">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>0.99439999999999995</v>
+        <v>0.99860000000000004</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -44041,19 +44053,19 @@
         <v>42</v>
       </c>
       <c r="B244" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C244">
-        <v>546</v>
+        <v>714</v>
       </c>
       <c r="D244">
-        <v>545</v>
+        <v>710</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F244">
-        <v>0.99819999999999998</v>
+        <v>0.99439999999999995</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -44061,19 +44073,19 @@
         <v>42</v>
       </c>
       <c r="B245" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C245">
-        <v>756</v>
+        <v>546</v>
       </c>
       <c r="D245">
-        <v>756</v>
+        <v>545</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.99819999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -44081,13 +44093,13 @@
         <v>42</v>
       </c>
       <c r="B246" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C246">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="D246">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -44101,13 +44113,13 @@
         <v>42</v>
       </c>
       <c r="B247" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C247">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="D247">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -44121,19 +44133,19 @@
         <v>42</v>
       </c>
       <c r="B248" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C248">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="D248">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.99350000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -44141,39 +44153,39 @@
         <v>42</v>
       </c>
       <c r="B249" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C249">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="D249">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.99350000000000005</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B250" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C250">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D250">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E250">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.96430000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -44181,19 +44193,19 @@
         <v>43</v>
       </c>
       <c r="B251" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C251">
-        <v>506</v>
+        <v>252</v>
       </c>
       <c r="D251">
-        <v>505</v>
+        <v>243</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F251">
-        <v>0.998</v>
+        <v>0.96430000000000005</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -44201,19 +44213,19 @@
         <v>43</v>
       </c>
       <c r="B252" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C252">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="D252">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="E252">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>0.97850000000000004</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -44221,19 +44233,19 @@
         <v>43</v>
       </c>
       <c r="B253" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C253">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="D253">
-        <v>458</v>
+        <v>546</v>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F253">
-        <v>0.94820000000000004</v>
+        <v>0.97850000000000004</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -44241,19 +44253,19 @@
         <v>43</v>
       </c>
       <c r="B254" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C254">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="D254">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="E254">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F254">
-        <v>0.92330000000000001</v>
+        <v>0.94820000000000004</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -44261,19 +44273,19 @@
         <v>43</v>
       </c>
       <c r="B255" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>0.92330000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -44281,59 +44293,59 @@
         <v>43</v>
       </c>
       <c r="B256" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C256">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="D256">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B257" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C257">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D257">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="E257">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.82140000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B258" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C258">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="D258">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.82140000000000002</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -44341,13 +44353,13 @@
         <v>45</v>
       </c>
       <c r="B259" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C259">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D259">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -44361,13 +44373,13 @@
         <v>45</v>
       </c>
       <c r="B260" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C260">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D260">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -44381,19 +44393,19 @@
         <v>45</v>
       </c>
       <c r="B261" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C261">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D261">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E261">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.87780000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -44401,19 +44413,19 @@
         <v>45</v>
       </c>
       <c r="B262" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C262">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D262">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.87780000000000002</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -44421,13 +44433,13 @@
         <v>45</v>
       </c>
       <c r="B263" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C263">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D263">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -44441,19 +44453,19 @@
         <v>45</v>
       </c>
       <c r="B264" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C264">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D264">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E264">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.92730000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -44461,19 +44473,19 @@
         <v>45</v>
       </c>
       <c r="B265" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C265">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D265">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F265">
-        <v>0.96</v>
+        <v>0.92730000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -44481,19 +44493,19 @@
         <v>45</v>
       </c>
       <c r="B266" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C266">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D266">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -44501,13 +44513,13 @@
         <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C267">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D267">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -44521,13 +44533,13 @@
         <v>45</v>
       </c>
       <c r="B268" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C268">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="D268">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -44541,19 +44553,19 @@
         <v>45</v>
       </c>
       <c r="B269" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C269">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D269">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E269">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.80700000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -44561,19 +44573,19 @@
         <v>45</v>
       </c>
       <c r="B270" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C270">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D270">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -44581,19 +44593,19 @@
         <v>45</v>
       </c>
       <c r="B271" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C271">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D271">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E271">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -44601,19 +44613,19 @@
         <v>45</v>
       </c>
       <c r="B272" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C272">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D272">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F272">
-        <v>0.91069999999999995</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -44621,19 +44633,19 @@
         <v>45</v>
       </c>
       <c r="B273" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C273">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D273">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.91069999999999995</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -44641,13 +44653,13 @@
         <v>45</v>
       </c>
       <c r="B274" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C274">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D274">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -44661,13 +44673,13 @@
         <v>45</v>
       </c>
       <c r="B275" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C275">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D275">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -44681,19 +44693,19 @@
         <v>45</v>
       </c>
       <c r="B276" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C276">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D276">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E276">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0.67420000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -44701,19 +44713,19 @@
         <v>45</v>
       </c>
       <c r="B277" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C277">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D277">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0.67420000000000002</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -44721,13 +44733,13 @@
         <v>45</v>
       </c>
       <c r="B278" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C278">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D278">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -44741,19 +44753,19 @@
         <v>45</v>
       </c>
       <c r="B279" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C279">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="D279">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="E279">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.97919999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -44761,19 +44773,19 @@
         <v>45</v>
       </c>
       <c r="B280" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C280">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D280">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.97919999999999996</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -44781,13 +44793,13 @@
         <v>45</v>
       </c>
       <c r="B281" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C281">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="D281">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -44801,13 +44813,13 @@
         <v>45</v>
       </c>
       <c r="B282" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C282">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D282">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -44821,19 +44833,19 @@
         <v>45</v>
       </c>
       <c r="B283" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C283">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D283">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E283">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>0.85709999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -44841,19 +44853,19 @@
         <v>45</v>
       </c>
       <c r="B284" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -44861,19 +44873,19 @@
         <v>45</v>
       </c>
       <c r="B285" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C285">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -44881,19 +44893,19 @@
         <v>45</v>
       </c>
       <c r="B286" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C286">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D286">
         <v>45</v>
       </c>
       <c r="E286">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -44901,19 +44913,19 @@
         <v>45</v>
       </c>
       <c r="B287" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C287">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D287">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -44921,19 +44933,19 @@
         <v>45</v>
       </c>
       <c r="B288" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E288">
         <v>0</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -44941,19 +44953,19 @@
         <v>45</v>
       </c>
       <c r="B289" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C289">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D289">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E289">
         <v>0</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -44961,19 +44973,19 @@
         <v>45</v>
       </c>
       <c r="B290" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C290">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D290">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E290">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -44981,19 +44993,19 @@
         <v>45</v>
       </c>
       <c r="B291" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C291">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D291">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E291">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F291">
-        <v>0.95309999999999995</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -45001,19 +45013,19 @@
         <v>45</v>
       </c>
       <c r="B292" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C292">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D292">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0.95309999999999995</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -45021,13 +45033,13 @@
         <v>45</v>
       </c>
       <c r="B293" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C293">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D293">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -45041,19 +45053,19 @@
         <v>45</v>
       </c>
       <c r="B294" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C294">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D294">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E294">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F294">
-        <v>0.92310000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -45061,19 +45073,19 @@
         <v>45</v>
       </c>
       <c r="B295" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C295">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D295">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -45081,19 +45093,19 @@
         <v>45</v>
       </c>
       <c r="B296" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C296">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D296">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E296">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -45101,19 +45113,19 @@
         <v>45</v>
       </c>
       <c r="B297" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C297">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D297">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -45121,13 +45133,13 @@
         <v>45</v>
       </c>
       <c r="B298" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C298">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D298">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -45141,13 +45153,13 @@
         <v>45</v>
       </c>
       <c r="B299" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C299">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D299">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -45161,19 +45173,19 @@
         <v>45</v>
       </c>
       <c r="B300" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C300">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D300">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E300">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0.92859999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -45181,19 +45193,19 @@
         <v>45</v>
       </c>
       <c r="B301" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C301">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D301">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0.92859999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -45201,19 +45213,19 @@
         <v>45</v>
       </c>
       <c r="B302" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C302">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D302">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E302">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -45221,19 +45233,19 @@
         <v>45</v>
       </c>
       <c r="B303" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C303">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D303">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E303">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F303">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -45241,19 +45253,19 @@
         <v>45</v>
       </c>
       <c r="B304" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C304">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D304">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F304">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -45261,19 +45273,19 @@
         <v>45</v>
       </c>
       <c r="B305" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C305">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D305">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F305">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -45281,13 +45293,13 @@
         <v>45</v>
       </c>
       <c r="B306" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C306">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D306">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -45301,13 +45313,13 @@
         <v>45</v>
       </c>
       <c r="B307" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C307">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D307">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -45321,19 +45333,19 @@
         <v>45</v>
       </c>
       <c r="B308" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C308">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D308">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E308">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>0.88890000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -45341,19 +45353,19 @@
         <v>45</v>
       </c>
       <c r="B309" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C309">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D309">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0.88890000000000002</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -45361,13 +45373,13 @@
         <v>45</v>
       </c>
       <c r="B310" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C310">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D310">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -45381,13 +45393,13 @@
         <v>45</v>
       </c>
       <c r="B311" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C311">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D311">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -45401,13 +45413,13 @@
         <v>45</v>
       </c>
       <c r="B312" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C312">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D312">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -45421,19 +45433,19 @@
         <v>45</v>
       </c>
       <c r="B313" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C313">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D313">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E313">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0.91069999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -45441,19 +45453,19 @@
         <v>45</v>
       </c>
       <c r="B314" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C314">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D314">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E314">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F314">
-        <v>0.84919999999999995</v>
+        <v>0.91069999999999995</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -45461,19 +45473,19 @@
         <v>45</v>
       </c>
       <c r="B315" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C315">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D315">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0.84919999999999995</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -45481,19 +45493,19 @@
         <v>45</v>
       </c>
       <c r="B316" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C316">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D316">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E316">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -45501,19 +45513,19 @@
         <v>45</v>
       </c>
       <c r="B317" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C317">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D317">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -45521,19 +45533,19 @@
         <v>45</v>
       </c>
       <c r="B318" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C318">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D318">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E318">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F318">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -45541,19 +45553,19 @@
         <v>45</v>
       </c>
       <c r="B319" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C319">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D319">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -45561,19 +45573,19 @@
         <v>45</v>
       </c>
       <c r="B320" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C320">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D320">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E320">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0.90910000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -45581,19 +45593,19 @@
         <v>45</v>
       </c>
       <c r="B321" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C321">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D321">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E321">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F321">
-        <v>0.95830000000000004</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -45601,19 +45613,19 @@
         <v>45</v>
       </c>
       <c r="B322" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C322">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D322">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0.95830000000000004</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -45621,13 +45633,13 @@
         <v>45</v>
       </c>
       <c r="B323" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C323">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D323">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -45641,19 +45653,19 @@
         <v>45</v>
       </c>
       <c r="B324" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C324">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D324">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E324">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F324">
-        <v>0.88890000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -45661,19 +45673,19 @@
         <v>45</v>
       </c>
       <c r="B325" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>0.88890000000000002</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -45681,19 +45693,19 @@
         <v>45</v>
       </c>
       <c r="B326" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C326">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D326">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0.93330000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -45701,19 +45713,19 @@
         <v>45</v>
       </c>
       <c r="B327" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C327">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D327">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F327">
-        <v>0.92859999999999998</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -45721,19 +45733,19 @@
         <v>45</v>
       </c>
       <c r="B328" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C328">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D328">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0.92859999999999998</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -45741,19 +45753,19 @@
         <v>45</v>
       </c>
       <c r="B329" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E329">
         <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -45761,7 +45773,7 @@
         <v>45</v>
       </c>
       <c r="B330" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -45781,7 +45793,7 @@
         <v>45</v>
       </c>
       <c r="B331" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -45801,39 +45813,39 @@
         <v>45</v>
       </c>
       <c r="B332" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C332">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D332">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E332">
         <v>0</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B333" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C333">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="D333">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="E333">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F333">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -45841,39 +45853,39 @@
         <v>46</v>
       </c>
       <c r="B334" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C334">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D334">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E334">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F334">
-        <v>0.95</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>499</v>
+        <v>46</v>
       </c>
       <c r="B335" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -45881,7 +45893,7 @@
         <v>499</v>
       </c>
       <c r="B336" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -45901,19 +45913,19 @@
         <v>499</v>
       </c>
       <c r="B337" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D337">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E337">
         <v>0</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -45921,13 +45933,13 @@
         <v>499</v>
       </c>
       <c r="B338" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C338">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D338">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -45941,13 +45953,13 @@
         <v>499</v>
       </c>
       <c r="B339" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D339">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -45961,19 +45973,19 @@
         <v>499</v>
       </c>
       <c r="B340" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E340">
         <v>0</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -45981,19 +45993,19 @@
         <v>499</v>
       </c>
       <c r="B341" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -46001,19 +46013,19 @@
         <v>499</v>
       </c>
       <c r="B342" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D342">
         <v>2</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -46021,19 +46033,19 @@
         <v>499</v>
       </c>
       <c r="B343" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -46041,33 +46053,33 @@
         <v>499</v>
       </c>
       <c r="B344" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B345" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C345">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D345">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -46081,19 +46093,19 @@
         <v>500</v>
       </c>
       <c r="B346" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C346">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D346">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E346">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F346">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -46101,19 +46113,19 @@
         <v>500</v>
       </c>
       <c r="B347" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -46121,19 +46133,19 @@
         <v>500</v>
       </c>
       <c r="B348" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C348">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D348">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E348">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F348">
-        <v>0.94440000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -46141,19 +46153,19 @@
         <v>500</v>
       </c>
       <c r="B349" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C349">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D349">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E349">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F349">
-        <v>0.86360000000000003</v>
+        <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -46161,19 +46173,19 @@
         <v>500</v>
       </c>
       <c r="B350" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C350">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D350">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E350">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F350">
-        <v>0.73440000000000005</v>
+        <v>0.86360000000000003</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -46181,19 +46193,19 @@
         <v>500</v>
       </c>
       <c r="B351" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C351">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D351">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E351">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F351">
-        <v>0.875</v>
+        <v>0.73440000000000005</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -46201,19 +46213,19 @@
         <v>500</v>
       </c>
       <c r="B352" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C352">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="D352">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="E352">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F352">
-        <v>0.97499999999999998</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -46221,39 +46233,39 @@
         <v>500</v>
       </c>
       <c r="B353" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C353">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D353">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="E353">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F353">
-        <v>0.9</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="B354" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -46261,19 +46273,19 @@
         <v>47</v>
       </c>
       <c r="B355" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C355">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D355">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>0</v>
       </c>
       <c r="F355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -46281,13 +46293,13 @@
         <v>47</v>
       </c>
       <c r="B356" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C356">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D356">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -46298,22 +46310,22 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B357" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C357">
-        <v>656</v>
+        <v>77</v>
       </c>
       <c r="D357">
-        <v>599</v>
+        <v>77</v>
       </c>
       <c r="E357">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F357">
-        <v>0.91310000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -46321,19 +46333,19 @@
         <v>48</v>
       </c>
       <c r="B358" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>0.91310000000000002</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -46341,7 +46353,7 @@
         <v>48</v>
       </c>
       <c r="B359" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -46361,19 +46373,19 @@
         <v>48</v>
       </c>
       <c r="B360" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C360">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="D360">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="E360">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F360">
-        <v>0.84630000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -46381,19 +46393,19 @@
         <v>48</v>
       </c>
       <c r="B361" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C361">
-        <v>484</v>
+        <v>644</v>
       </c>
       <c r="D361">
-        <v>379</v>
+        <v>545</v>
       </c>
       <c r="E361">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F361">
-        <v>0.78310000000000002</v>
+        <v>0.84630000000000005</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -46401,19 +46413,19 @@
         <v>48</v>
       </c>
       <c r="B362" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C362">
-        <v>880</v>
+        <v>484</v>
       </c>
       <c r="D362">
-        <v>800</v>
+        <v>379</v>
       </c>
       <c r="E362">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F362">
-        <v>0.90910000000000002</v>
+        <v>0.78310000000000002</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -46421,19 +46433,19 @@
         <v>48</v>
       </c>
       <c r="B363" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C363">
-        <v>360</v>
+        <v>880</v>
       </c>
       <c r="D363">
-        <v>288</v>
+        <v>800</v>
       </c>
       <c r="E363">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F363">
-        <v>0.8</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -46441,19 +46453,19 @@
         <v>48</v>
       </c>
       <c r="B364" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C364">
-        <v>585</v>
+        <v>360</v>
       </c>
       <c r="D364">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="E364">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F364">
-        <v>0.87009999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -46461,19 +46473,19 @@
         <v>48</v>
       </c>
       <c r="B365" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C365">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D365">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E365">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F365">
-        <v>0.89129999999999998</v>
+        <v>0.87009999999999998</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -46481,19 +46493,19 @@
         <v>48</v>
       </c>
       <c r="B366" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C366">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D366">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E366">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F366">
-        <v>0.87339999999999995</v>
+        <v>0.89129999999999998</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -46501,19 +46513,19 @@
         <v>48</v>
       </c>
       <c r="B367" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C367">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="D367">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="E367">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F367">
-        <v>0.89329999999999998</v>
+        <v>0.87339999999999995</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -46521,19 +46533,19 @@
         <v>48</v>
       </c>
       <c r="B368" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C368">
-        <v>352</v>
+        <v>525</v>
       </c>
       <c r="D368">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F368">
-        <v>1</v>
+        <v>0.89329999999999998</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -46541,19 +46553,19 @@
         <v>48</v>
       </c>
       <c r="B369" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C369">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="D369">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="E369">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0.8952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -46561,19 +46573,19 @@
         <v>48</v>
       </c>
       <c r="B370" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>0.8952</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -46581,7 +46593,7 @@
         <v>48</v>
       </c>
       <c r="B371" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -46598,22 +46610,22 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B372" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C372">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="D372">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E372">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F372">
-        <v>0.95689999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -46621,19 +46633,19 @@
         <v>49</v>
       </c>
       <c r="B373" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C373">
-        <v>216</v>
+        <v>627</v>
       </c>
       <c r="D373">
-        <v>212</v>
+        <v>600</v>
       </c>
       <c r="E373">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F373">
-        <v>0.98150000000000004</v>
+        <v>0.95689999999999997</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -46641,19 +46653,19 @@
         <v>49</v>
       </c>
       <c r="B374" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C374">
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="D374">
-        <v>478</v>
+        <v>212</v>
       </c>
       <c r="E374">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F374">
-        <v>0.99580000000000002</v>
+        <v>0.98150000000000004</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -46661,38 +46673,58 @@
         <v>49</v>
       </c>
       <c r="B375" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C375">
-        <v>693</v>
+        <v>480</v>
       </c>
       <c r="D375">
-        <v>655</v>
+        <v>478</v>
       </c>
       <c r="E375">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F375">
-        <v>0.94520000000000004</v>
+        <v>0.99580000000000002</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
+        <v>49</v>
+      </c>
+      <c r="B376" t="s">
+        <v>879</v>
+      </c>
+      <c r="C376">
+        <v>693</v>
+      </c>
+      <c r="D376">
+        <v>655</v>
+      </c>
+      <c r="E376">
+        <v>38</v>
+      </c>
+      <c r="F376">
+        <v>0.94520000000000004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
         <v>50</v>
       </c>
-      <c r="B376" t="s">
-        <v>876</v>
-      </c>
-      <c r="C376">
+      <c r="B377" t="s">
+        <v>880</v>
+      </c>
+      <c r="C377">
         <v>6</v>
       </c>
-      <c r="D376">
+      <c r="D377">
         <v>6</v>
       </c>
-      <c r="E376">
-        <v>0</v>
-      </c>
-      <c r="F376">
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
         <v>1</v>
       </c>
     </row>

--- a/semana/semana_completa_16.xlsx
+++ b/semana/semana_completa_16.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1161A03-9B14-44F4-A4EE-263DF4B5B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F80E145-7330-4D6C-B78D-01F8AA201786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Detalle_VOK" sheetId="3" r:id="rId3"/>
     <sheet name="Carta_cr" sheetId="4" r:id="rId4"/>
     <sheet name="Detalle_cr" sheetId="5" r:id="rId5"/>
+    <sheet name="Evidencia_vok" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="929">
   <si>
     <t>c</t>
   </si>
@@ -2678,13 +2679,157 @@
   </si>
   <si>
     <t>E-WEL-N0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V MALOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia punto 3, no realiza alto total punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia punto 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegada tarde a planta por trafico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t>inicia punto 3, se desvia no llega a planta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realzia recorrido, error de sistema no registra punto1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inician tarde el recorrido , inicia en putno 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realzia recorrido, inicia tarde y no registra punto 1 </t>
+  </si>
+  <si>
+    <t>unidad confirmada no realzia recorrido, error de sistema no registra punto final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, error del sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, inicia mas adelante de la referencia del punto 1 y no lo registra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1y final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde el recorrido , error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde el recorrido, error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no regista punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no pasa por el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, llega tarde y no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido punto 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inician tarde el recorrido y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2, llegada tarde a planta y no registra punto final, error de sistema no registra punto fianl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en putno 2 , inicia antes el recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde y no registra el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de  sistema no registra punto 1 he inicia tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido programado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegada tarde a planta y no registra punto fianl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2 o 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra el recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido programada, inicia en recorrido a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde el recorrido, inicia antes el recorrido no registrando punto 1 y final </t>
+  </si>
+  <si>
+    <t>inicia en punto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido porgramado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no realiza alto en punto 1 y no lo registra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido programado, no realiza alto total en punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, inicia tarde y no registra punto 1 </t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido</t>
+  </si>
+  <si>
+    <t>inicia en punto 3, inicia a mediados y regresa al punto 1 y no lo registra, llega tarde a planta y error de sistema no registra punto final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2, llega tarde a planta y error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde el recorrido y no registra el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se realiza cambios de horario de inicio </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2737,8 +2882,31 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2937,8 +3105,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E36F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2970,11 +3156,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3025,6 +3235,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39184,7 +39408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FFAE9B-274F-4256-B476-354716661A12}">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -46731,4 +46955,888 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8AF431-5936-40A6-916F-76E0733DD81B}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="120.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="51">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="51">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="51">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="51">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="51">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="51">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="51">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="51">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="51">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="51">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="51">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="51">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="51">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="51">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="51">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="51">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="51">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="51">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="51">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="51">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="51">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="51">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="51">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="51">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="51">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="51">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="51">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="51">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="51">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="51">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="51">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="51">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="51">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="51">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="51">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="51">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="51">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="51">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="51">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="51">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="51">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="51">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" s="51">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" s="51">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="51">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="51">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" s="51">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="51">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="51">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
+      <c r="A51" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C52" s="51">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>462</v>
+      </c>
+      <c r="C53" s="51">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" s="51">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>468</v>
+      </c>
+      <c r="C55" s="51">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="51">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="51">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="51">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="51">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="51">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="C61" s="51">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>928</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C61">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>